--- a/GA-Tournament-V2.xlsx
+++ b/GA-Tournament-V2.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27618"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ncd2763\Documents\Data\GA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://whitecliffecollege-my.sharepoint.com/personal/sanaa_whitecliffe_ac_nz/Documents/Documents/Research/Data-NoV2023/GA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D5D44A-3EDB-40C5-819C-BDABC819832F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{06D5D44A-3EDB-40C5-819C-BDABC819832F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F7F3E50-A008-470F-B6FC-DB6939AE8A38}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Sammury" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,34 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>R8</t>
+  </si>
+  <si>
+    <t>R9</t>
+  </si>
   <si>
     <t xml:space="preserve">Average </t>
   </si>
@@ -57,6 +84,9 @@
     <t>standard deviation</t>
   </si>
   <si>
+    <t>Avarage</t>
+  </si>
+  <si>
     <t>Best Track Fitness</t>
   </si>
   <si>
@@ -65,39 +95,12 @@
   <si>
     <t>Standard Deviation</t>
   </si>
-  <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>R3</t>
-  </si>
-  <si>
-    <t>R4</t>
-  </si>
-  <si>
-    <t>R6</t>
-  </si>
-  <si>
-    <t>R7</t>
-  </si>
-  <si>
-    <t>R5</t>
-  </si>
-  <si>
-    <t>R8</t>
-  </si>
-  <si>
-    <t>R9</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2014,42 +2017,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:L202"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G201" sqref="G201:L202"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:12">
       <c r="C1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="J1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="K1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="2:12">
       <c r="B2">
         <v>1</v>
       </c>
@@ -2084,7 +2087,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12">
       <c r="B3">
         <v>2</v>
       </c>
@@ -2119,7 +2122,7 @@
         <v>15.365</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12">
       <c r="B4">
         <v>3</v>
       </c>
@@ -2154,7 +2157,7 @@
         <v>237.5</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12">
       <c r="B5">
         <v>4</v>
       </c>
@@ -2189,7 +2192,7 @@
         <v>676.2</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12">
       <c r="B6">
         <v>5</v>
       </c>
@@ -2224,7 +2227,7 @@
         <v>962.5</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12">
       <c r="B7">
         <v>6</v>
       </c>
@@ -2259,7 +2262,7 @@
         <v>1162.5</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12">
       <c r="B8">
         <v>7</v>
       </c>
@@ -2294,7 +2297,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12">
       <c r="B9">
         <v>8</v>
       </c>
@@ -2329,7 +2332,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12">
       <c r="B10">
         <v>9</v>
       </c>
@@ -2364,7 +2367,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12">
       <c r="B11">
         <v>10</v>
       </c>
@@ -2399,7 +2402,7 @@
         <v>1813.5</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12">
       <c r="B12">
         <v>11</v>
       </c>
@@ -2434,7 +2437,7 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12">
       <c r="B13">
         <v>12</v>
       </c>
@@ -2469,7 +2472,7 @@
         <v>3318</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12">
       <c r="B14">
         <v>13</v>
       </c>
@@ -2504,7 +2507,7 @@
         <v>2355.6</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12">
       <c r="B15">
         <v>14</v>
       </c>
@@ -2539,7 +2542,7 @@
         <v>3480</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12">
       <c r="B16">
         <v>15</v>
       </c>
@@ -2574,7 +2577,7 @@
         <v>3520</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12">
       <c r="B17">
         <v>16</v>
       </c>
@@ -2609,7 +2612,7 @@
         <v>4941</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12">
       <c r="B18">
         <v>17</v>
       </c>
@@ -2644,7 +2647,7 @@
         <v>4288</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12">
       <c r="B19">
         <v>18</v>
       </c>
@@ -2679,7 +2682,7 @@
         <v>3698.1</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12">
       <c r="B20">
         <v>19</v>
       </c>
@@ -2714,7 +2717,7 @@
         <v>3965.8</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12">
       <c r="B21">
         <v>20</v>
       </c>
@@ -2749,7 +2752,7 @@
         <v>4095</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12">
       <c r="B22">
         <v>21</v>
       </c>
@@ -2784,7 +2787,7 @@
         <v>5340</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12">
       <c r="B23">
         <v>22</v>
       </c>
@@ -2819,7 +2822,7 @@
         <v>4466</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12">
       <c r="B24">
         <v>23</v>
       </c>
@@ -2854,7 +2857,7 @@
         <v>4002</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12">
       <c r="B25">
         <v>24</v>
       </c>
@@ -2889,7 +2892,7 @@
         <v>4891</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12">
       <c r="B26">
         <v>25</v>
       </c>
@@ -2924,7 +2927,7 @@
         <v>4623</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12">
       <c r="B27">
         <v>26</v>
       </c>
@@ -2959,7 +2962,7 @@
         <v>4692</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12">
       <c r="B28">
         <v>27</v>
       </c>
@@ -2994,7 +2997,7 @@
         <v>4410</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12">
       <c r="B29">
         <v>28</v>
       </c>
@@ -3029,7 +3032,7 @@
         <v>5236</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12">
       <c r="B30">
         <v>29</v>
       </c>
@@ -3064,7 +3067,7 @@
         <v>6958</v>
       </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12">
       <c r="B31">
         <v>30</v>
       </c>
@@ -3099,7 +3102,7 @@
         <v>4992</v>
       </c>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12">
       <c r="B32">
         <v>31</v>
       </c>
@@ -3134,7 +3137,7 @@
         <v>5135</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:12">
       <c r="B33">
         <v>32</v>
       </c>
@@ -3169,7 +3172,7 @@
         <v>5280</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:12">
       <c r="B34">
         <v>33</v>
       </c>
@@ -3204,7 +3207,7 @@
         <v>4758</v>
       </c>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:12">
       <c r="B35">
         <v>34</v>
       </c>
@@ -3239,7 +3242,7 @@
         <v>4830</v>
       </c>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:12">
       <c r="B36">
         <v>35</v>
       </c>
@@ -3274,7 +3277,7 @@
         <v>5236</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:12">
       <c r="B37">
         <v>36</v>
       </c>
@@ -3309,7 +3312,7 @@
         <v>5106</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:12">
       <c r="B38">
         <v>37</v>
       </c>
@@ -3344,7 +3347,7 @@
         <v>5609</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:12">
       <c r="B39">
         <v>38</v>
       </c>
@@ -3379,7 +3382,7 @@
         <v>5313</v>
       </c>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:12">
       <c r="B40">
         <v>39</v>
       </c>
@@ -3414,7 +3417,7 @@
         <v>5400</v>
       </c>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:12">
       <c r="B41">
         <v>40</v>
       </c>
@@ -3449,7 +3452,7 @@
         <v>6478</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:12">
       <c r="B42">
         <v>41</v>
       </c>
@@ -3484,7 +3487,7 @@
         <v>5103</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:12">
       <c r="B43">
         <v>42</v>
       </c>
@@ -3519,7 +3522,7 @@
         <v>5325</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:12">
       <c r="B44">
         <v>43</v>
       </c>
@@ -3554,7 +3557,7 @@
         <v>4977</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:12">
       <c r="B45">
         <v>44</v>
       </c>
@@ -3589,7 +3592,7 @@
         <v>6004</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:12">
       <c r="B46">
         <v>45</v>
       </c>
@@ -3624,7 +3627,7 @@
         <v>5850</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:12">
       <c r="B47">
         <v>46</v>
       </c>
@@ -3659,7 +3662,7 @@
         <v>5244</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:12">
       <c r="B48">
         <v>47</v>
       </c>
@@ -3694,7 +3697,7 @@
         <v>5695.9</v>
       </c>
     </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:12">
       <c r="B49">
         <v>48</v>
       </c>
@@ -3729,7 +3732,7 @@
         <v>6557</v>
       </c>
     </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:12">
       <c r="B50">
         <v>49</v>
       </c>
@@ -3764,7 +3767,7 @@
         <v>5621</v>
       </c>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:12">
       <c r="B51">
         <v>50</v>
       </c>
@@ -3799,7 +3802,7 @@
         <v>5700</v>
       </c>
     </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:12">
       <c r="B52">
         <v>51</v>
       </c>
@@ -3834,7 +3837,7 @@
         <v>5395</v>
       </c>
     </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:12">
       <c r="B53">
         <v>52</v>
       </c>
@@ -3869,7 +3872,7 @@
         <v>5548</v>
       </c>
     </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:12">
       <c r="B54">
         <v>53</v>
       </c>
@@ -3904,7 +3907,7 @@
         <v>5400</v>
       </c>
     </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:12">
       <c r="B55">
         <v>54</v>
       </c>
@@ -3939,7 +3942,7 @@
         <v>5402</v>
       </c>
     </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:12">
       <c r="B56">
         <v>55</v>
       </c>
@@ -3974,7 +3977,7 @@
         <v>6300</v>
       </c>
     </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:12">
       <c r="B57">
         <v>56</v>
       </c>
@@ -4009,7 +4012,7 @@
         <v>6160</v>
       </c>
     </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:12">
       <c r="B58">
         <v>57</v>
       </c>
@@ -4044,7 +4047,7 @@
         <v>6825</v>
       </c>
     </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:12">
       <c r="B59">
         <v>58</v>
       </c>
@@ -4079,7 +4082,7 @@
         <v>5244</v>
       </c>
     </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:12">
       <c r="B60">
         <v>59</v>
       </c>
@@ -4114,7 +4117,7 @@
         <v>6320</v>
       </c>
     </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:12">
       <c r="B61">
         <v>60</v>
       </c>
@@ -4149,7 +4152,7 @@
         <v>5928</v>
       </c>
     </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:12">
       <c r="B62">
         <v>61</v>
       </c>
@@ -4184,7 +4187,7 @@
         <v>7654</v>
       </c>
     </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:12">
       <c r="B63">
         <v>62</v>
       </c>
@@ -4219,7 +4222,7 @@
         <v>5994</v>
       </c>
     </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:12">
       <c r="B64">
         <v>63</v>
       </c>
@@ -4254,7 +4257,7 @@
         <v>6525</v>
       </c>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:12">
       <c r="B65">
         <v>64</v>
       </c>
@@ -4289,7 +4292,7 @@
         <v>5796</v>
       </c>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:12">
       <c r="B66">
         <v>65</v>
       </c>
@@ -4324,7 +4327,7 @@
         <v>5700</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:12">
       <c r="B67">
         <v>66</v>
       </c>
@@ -4359,7 +4362,7 @@
         <v>5600</v>
       </c>
     </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:12">
       <c r="B68">
         <v>67</v>
       </c>
@@ -4394,7 +4397,7 @@
         <v>5451</v>
       </c>
     </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:12">
       <c r="B69">
         <v>68</v>
       </c>
@@ -4429,7 +4432,7 @@
         <v>5796</v>
       </c>
     </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:12">
       <c r="B70">
         <v>69</v>
       </c>
@@ -4464,7 +4467,7 @@
         <v>7371</v>
       </c>
     </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:12">
       <c r="B71">
         <v>70</v>
       </c>
@@ -4499,7 +4502,7 @@
         <v>5751</v>
       </c>
     </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:12">
       <c r="B72">
         <v>71</v>
       </c>
@@ -4534,7 +4537,7 @@
         <v>5775</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:12">
       <c r="B73">
         <v>72</v>
       </c>
@@ -4569,7 +4572,7 @@
         <v>5460</v>
       </c>
     </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:12">
       <c r="B74">
         <v>73</v>
       </c>
@@ -4604,7 +4607,7 @@
         <v>5624</v>
       </c>
     </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:12">
       <c r="B75">
         <v>74</v>
       </c>
@@ -4639,7 +4642,7 @@
         <v>5785</v>
       </c>
     </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:12">
       <c r="B76">
         <v>75</v>
       </c>
@@ -4674,7 +4677,7 @@
         <v>6450</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:12">
       <c r="B77">
         <v>76</v>
       </c>
@@ -4709,7 +4712,7 @@
         <v>5928</v>
       </c>
     </row>
-    <row r="78" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:12">
       <c r="B78">
         <v>77</v>
       </c>
@@ -4744,7 +4747,7 @@
         <v>5775</v>
       </c>
     </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:12">
       <c r="B79">
         <v>78</v>
       </c>
@@ -4779,7 +4782,7 @@
         <v>6319</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:12">
       <c r="B80">
         <v>79</v>
       </c>
@@ -4814,7 +4817,7 @@
         <v>5280</v>
       </c>
     </row>
-    <row r="81" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:12">
       <c r="B81">
         <v>80</v>
       </c>
@@ -4849,7 +4852,7 @@
         <v>5550</v>
       </c>
     </row>
-    <row r="82" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:12">
       <c r="B82">
         <v>81</v>
       </c>
@@ -4884,7 +4887,7 @@
         <v>5621</v>
       </c>
     </row>
-    <row r="83" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:12">
       <c r="B83">
         <v>82</v>
       </c>
@@ -4919,7 +4922,7 @@
         <v>5767</v>
       </c>
     </row>
-    <row r="84" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:12">
       <c r="B84">
         <v>83</v>
       </c>
@@ -4954,7 +4957,7 @@
         <v>5412</v>
       </c>
     </row>
-    <row r="85" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:12">
       <c r="B85">
         <v>84</v>
       </c>
@@ -4989,7 +4992,7 @@
         <v>5688</v>
       </c>
     </row>
-    <row r="86" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:12">
       <c r="B86">
         <v>85</v>
       </c>
@@ -5024,7 +5027,7 @@
         <v>5561</v>
       </c>
     </row>
-    <row r="87" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:12">
       <c r="B87">
         <v>86</v>
       </c>
@@ -5059,7 +5062,7 @@
         <v>5893</v>
       </c>
     </row>
-    <row r="88" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:12">
       <c r="B88">
         <v>87</v>
       </c>
@@ -5094,7 +5097,7 @@
         <v>6241</v>
       </c>
     </row>
-    <row r="89" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:12">
       <c r="B89">
         <v>88</v>
       </c>
@@ -5129,7 +5132,7 @@
         <v>5712</v>
       </c>
     </row>
-    <row r="90" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:12">
       <c r="B90">
         <v>89</v>
       </c>
@@ -5164,7 +5167,7 @@
         <v>5848</v>
       </c>
     </row>
-    <row r="91" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:12">
       <c r="B91">
         <v>90</v>
       </c>
@@ -5199,7 +5202,7 @@
         <v>7990</v>
       </c>
     </row>
-    <row r="92" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:12">
       <c r="B92">
         <v>91</v>
       </c>
@@ -5234,7 +5237,7 @@
         <v>6006</v>
       </c>
     </row>
-    <row r="93" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:12">
       <c r="B93">
         <v>92</v>
       </c>
@@ -5269,7 +5272,7 @@
         <v>5852</v>
       </c>
     </row>
-    <row r="94" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:12">
       <c r="B94">
         <v>93</v>
       </c>
@@ -5304,7 +5307,7 @@
         <v>5600</v>
       </c>
     </row>
-    <row r="95" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:12">
       <c r="B95">
         <v>94</v>
       </c>
@@ -5339,7 +5342,7 @@
         <v>7482</v>
       </c>
     </row>
-    <row r="96" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:12">
       <c r="B96">
         <v>95</v>
       </c>
@@ -5374,7 +5377,7 @@
         <v>5658</v>
       </c>
     </row>
-    <row r="97" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:12">
       <c r="B97">
         <v>96</v>
       </c>
@@ -5409,7 +5412,7 @@
         <v>6004</v>
       </c>
     </row>
-    <row r="98" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:12">
       <c r="B98">
         <v>97</v>
       </c>
@@ -5444,7 +5447,7 @@
         <v>7650</v>
       </c>
     </row>
-    <row r="99" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:12">
       <c r="B99">
         <v>98</v>
       </c>
@@ -5479,7 +5482,7 @@
         <v>6248</v>
       </c>
     </row>
-    <row r="100" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:12">
       <c r="B100">
         <v>99</v>
       </c>
@@ -5514,7 +5517,7 @@
         <v>5986</v>
       </c>
     </row>
-    <row r="101" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:12">
       <c r="B101">
         <v>100</v>
       </c>
@@ -5549,7 +5552,7 @@
         <v>6391</v>
       </c>
     </row>
-    <row r="102" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:12">
       <c r="B102">
         <v>101</v>
       </c>
@@ -5584,7 +5587,7 @@
         <v>6885</v>
       </c>
     </row>
-    <row r="103" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:12">
       <c r="B103">
         <v>102</v>
       </c>
@@ -5619,7 +5622,7 @@
         <v>7310</v>
       </c>
     </row>
-    <row r="104" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:12">
       <c r="B104">
         <v>103</v>
       </c>
@@ -5654,7 +5657,7 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="105" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:12">
       <c r="B105">
         <v>104</v>
       </c>
@@ -5689,7 +5692,7 @@
         <v>5520</v>
       </c>
     </row>
-    <row r="106" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:12">
       <c r="B106">
         <v>105</v>
       </c>
@@ -5724,7 +5727,7 @@
         <v>5822</v>
       </c>
     </row>
-    <row r="107" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:12">
       <c r="B107">
         <v>106</v>
       </c>
@@ -5759,7 +5762,7 @@
         <v>6318</v>
       </c>
     </row>
-    <row r="108" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:12">
       <c r="B108">
         <v>107</v>
       </c>
@@ -5794,7 +5797,7 @@
         <v>5963</v>
       </c>
     </row>
-    <row r="109" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:12">
       <c r="B109">
         <v>108</v>
       </c>
@@ -5829,7 +5832,7 @@
         <v>6586</v>
       </c>
     </row>
-    <row r="110" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:12">
       <c r="B110">
         <v>109</v>
       </c>
@@ -5864,7 +5867,7 @@
         <v>6035</v>
       </c>
     </row>
-    <row r="111" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:12">
       <c r="B111">
         <v>110</v>
       </c>
@@ -5899,7 +5902,7 @@
         <v>6525</v>
       </c>
     </row>
-    <row r="112" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:12">
       <c r="B112">
         <v>111</v>
       </c>
@@ -5934,7 +5937,7 @@
         <v>5520</v>
       </c>
     </row>
-    <row r="113" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:12">
       <c r="B113">
         <v>112</v>
       </c>
@@ -5969,7 +5972,7 @@
         <v>5865</v>
       </c>
     </row>
-    <row r="114" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:12">
       <c r="B114">
         <v>113</v>
       </c>
@@ -6004,7 +6007,7 @@
         <v>5994</v>
       </c>
     </row>
-    <row r="115" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:12">
       <c r="B115">
         <v>114</v>
       </c>
@@ -6039,7 +6042,7 @@
         <v>5904</v>
       </c>
     </row>
-    <row r="116" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:12">
       <c r="B116">
         <v>115</v>
       </c>
@@ -6074,7 +6077,7 @@
         <v>6318</v>
       </c>
     </row>
-    <row r="117" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:12">
       <c r="B117">
         <v>116</v>
       </c>
@@ -6109,7 +6112,7 @@
         <v>6150</v>
       </c>
     </row>
-    <row r="118" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:12">
       <c r="B118">
         <v>117</v>
       </c>
@@ -6144,7 +6147,7 @@
         <v>6885</v>
       </c>
     </row>
-    <row r="119" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:12">
       <c r="B119">
         <v>118</v>
       </c>
@@ -6179,7 +6182,7 @@
         <v>6992</v>
       </c>
     </row>
-    <row r="120" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:12">
       <c r="B120">
         <v>119</v>
       </c>
@@ -6214,7 +6217,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="121" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:12">
       <c r="B121">
         <v>120</v>
       </c>
@@ -6249,7 +6252,7 @@
         <v>7830</v>
       </c>
     </row>
-    <row r="122" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:12">
       <c r="B122">
         <v>121</v>
       </c>
@@ -6284,7 +6287,7 @@
         <v>6132</v>
       </c>
     </row>
-    <row r="123" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:12">
       <c r="B123">
         <v>122</v>
       </c>
@@ -6319,7 +6322,7 @@
         <v>7020</v>
       </c>
     </row>
-    <row r="124" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:12">
       <c r="B124">
         <v>123</v>
       </c>
@@ -6354,7 +6357,7 @@
         <v>5822</v>
       </c>
     </row>
-    <row r="125" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:12">
       <c r="B125">
         <v>124</v>
       </c>
@@ -6389,7 +6392,7 @@
         <v>6512</v>
       </c>
     </row>
-    <row r="126" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:12">
       <c r="B126">
         <v>125</v>
       </c>
@@ -6424,7 +6427,7 @@
         <v>7917</v>
       </c>
     </row>
-    <row r="127" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:12">
       <c r="B127">
         <v>126</v>
       </c>
@@ -6459,7 +6462,7 @@
         <v>7395</v>
       </c>
     </row>
-    <row r="128" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:12">
       <c r="B128">
         <v>127</v>
       </c>
@@ -6494,7 +6497,7 @@
         <v>6059</v>
       </c>
     </row>
-    <row r="129" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:12">
       <c r="B129">
         <v>128</v>
       </c>
@@ -6529,7 +6532,7 @@
         <v>7055</v>
       </c>
     </row>
-    <row r="130" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:12">
       <c r="B130">
         <v>129</v>
       </c>
@@ -6564,7 +6567,7 @@
         <v>6806</v>
       </c>
     </row>
-    <row r="131" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:12">
       <c r="B131">
         <v>130</v>
       </c>
@@ -6599,7 +6602,7 @@
         <v>6225</v>
       </c>
     </row>
-    <row r="132" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:12">
       <c r="B132">
         <v>131</v>
       </c>
@@ -6634,7 +6637,7 @@
         <v>6308</v>
       </c>
     </row>
-    <row r="133" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:12">
       <c r="B133">
         <v>132</v>
       </c>
@@ -6669,7 +6672,7 @@
         <v>7298</v>
       </c>
     </row>
-    <row r="134" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:12">
       <c r="B134">
         <v>133</v>
       </c>
@@ -6704,7 +6707,7 @@
         <v>5822</v>
       </c>
     </row>
-    <row r="135" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:12">
       <c r="B135">
         <v>134</v>
       </c>
@@ -6739,7 +6742,7 @@
         <v>7569</v>
       </c>
     </row>
-    <row r="136" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:12">
       <c r="B136">
         <v>135</v>
       </c>
@@ -6774,7 +6777,7 @@
         <v>6068</v>
       </c>
     </row>
-    <row r="137" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:12">
       <c r="B137">
         <v>136</v>
       </c>
@@ -6809,7 +6812,7 @@
         <v>7482</v>
       </c>
     </row>
-    <row r="138" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:12">
       <c r="B138">
         <v>137</v>
       </c>
@@ -6844,7 +6847,7 @@
         <v>5925</v>
       </c>
     </row>
-    <row r="139" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:12">
       <c r="B139">
         <v>138</v>
       </c>
@@ -6879,7 +6882,7 @@
         <v>7140</v>
       </c>
     </row>
-    <row r="140" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:12">
       <c r="B140">
         <v>139</v>
       </c>
@@ -6914,7 +6917,7 @@
         <v>8184</v>
       </c>
     </row>
-    <row r="141" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:12">
       <c r="B141">
         <v>140</v>
       </c>
@@ -6949,7 +6952,7 @@
         <v>7128</v>
       </c>
     </row>
-    <row r="142" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:12">
       <c r="B142">
         <v>141</v>
       </c>
@@ -6984,7 +6987,7 @@
         <v>6400</v>
       </c>
     </row>
-    <row r="143" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:12">
       <c r="B143">
         <v>142</v>
       </c>
@@ -7019,7 +7022,7 @@
         <v>6384</v>
       </c>
     </row>
-    <row r="144" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:12">
       <c r="B144">
         <v>143</v>
       </c>
@@ -7054,7 +7057,7 @@
         <v>7392</v>
       </c>
     </row>
-    <row r="145" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:12">
       <c r="B145">
         <v>144</v>
       </c>
@@ -7089,7 +7092,7 @@
         <v>5767</v>
       </c>
     </row>
-    <row r="146" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:12">
       <c r="B146">
         <v>145</v>
       </c>
@@ -7124,7 +7127,7 @@
         <v>5576</v>
       </c>
     </row>
-    <row r="147" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:12">
       <c r="B147">
         <v>146</v>
       </c>
@@ -7159,7 +7162,7 @@
         <v>7565</v>
       </c>
     </row>
-    <row r="148" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:12">
       <c r="B148">
         <v>147</v>
       </c>
@@ -7194,7 +7197,7 @@
         <v>5904</v>
       </c>
     </row>
-    <row r="149" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:12">
       <c r="B149">
         <v>148</v>
       </c>
@@ -7229,7 +7232,7 @@
         <v>6438</v>
       </c>
     </row>
-    <row r="150" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:12">
       <c r="B150">
         <v>149</v>
       </c>
@@ -7264,7 +7267,7 @@
         <v>6290</v>
       </c>
     </row>
-    <row r="151" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:12">
       <c r="B151">
         <v>150</v>
       </c>
@@ -7299,7 +7302,7 @@
         <v>6314</v>
       </c>
     </row>
-    <row r="152" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:12">
       <c r="B152">
         <v>151</v>
       </c>
@@ -7334,7 +7337,7 @@
         <v>6966</v>
       </c>
     </row>
-    <row r="153" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:12">
       <c r="B153">
         <v>152</v>
       </c>
@@ -7369,7 +7372,7 @@
         <v>5780</v>
       </c>
     </row>
-    <row r="154" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:12">
       <c r="B154">
         <v>153</v>
       </c>
@@ -7404,7 +7407,7 @@
         <v>6889</v>
       </c>
     </row>
-    <row r="155" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:12">
       <c r="B155">
         <v>154</v>
       </c>
@@ -7439,7 +7442,7 @@
         <v>5760</v>
       </c>
     </row>
-    <row r="156" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:12">
       <c r="B156">
         <v>155</v>
       </c>
@@ -7474,7 +7477,7 @@
         <v>5850</v>
       </c>
     </row>
-    <row r="157" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:12">
       <c r="B157">
         <v>156</v>
       </c>
@@ -7509,7 +7512,7 @@
         <v>6643</v>
       </c>
     </row>
-    <row r="158" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:12">
       <c r="B158">
         <v>157</v>
       </c>
@@ -7544,7 +7547,7 @@
         <v>6177</v>
       </c>
     </row>
-    <row r="159" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:12">
       <c r="B159">
         <v>158</v>
       </c>
@@ -7579,7 +7582,7 @@
         <v>7176</v>
       </c>
     </row>
-    <row r="160" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:12">
       <c r="B160">
         <v>159</v>
       </c>
@@ -7614,7 +7617,7 @@
         <v>6192</v>
       </c>
     </row>
-    <row r="161" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:12">
       <c r="B161">
         <v>160</v>
       </c>
@@ -7649,7 +7652,7 @@
         <v>5964</v>
       </c>
     </row>
-    <row r="162" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:12">
       <c r="B162">
         <v>161</v>
       </c>
@@ -7684,7 +7687,7 @@
         <v>5561</v>
       </c>
     </row>
-    <row r="163" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:12">
       <c r="B163">
         <v>162</v>
       </c>
@@ -7719,7 +7722,7 @@
         <v>6786</v>
       </c>
     </row>
-    <row r="164" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:12">
       <c r="B164">
         <v>163</v>
       </c>
@@ -7754,7 +7757,7 @@
         <v>7031</v>
       </c>
     </row>
-    <row r="165" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:12">
       <c r="B165">
         <v>164</v>
       </c>
@@ -7789,7 +7792,7 @@
         <v>6716</v>
       </c>
     </row>
-    <row r="166" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:12">
       <c r="B166">
         <v>165</v>
       </c>
@@ -7824,7 +7827,7 @@
         <v>6320</v>
       </c>
     </row>
-    <row r="167" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:12">
       <c r="B167">
         <v>166</v>
       </c>
@@ -7859,7 +7862,7 @@
         <v>5934</v>
       </c>
     </row>
-    <row r="168" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:12">
       <c r="B168">
         <v>167</v>
       </c>
@@ -7894,7 +7897,7 @@
         <v>5658</v>
       </c>
     </row>
-    <row r="169" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:12">
       <c r="B169">
         <v>168</v>
       </c>
@@ -7929,7 +7932,7 @@
         <v>6384</v>
       </c>
     </row>
-    <row r="170" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:12">
       <c r="B170">
         <v>169</v>
       </c>
@@ -7964,7 +7967,7 @@
         <v>6240</v>
       </c>
     </row>
-    <row r="171" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:12">
       <c r="B171">
         <v>170</v>
       </c>
@@ -7999,7 +8002,7 @@
         <v>6048</v>
       </c>
     </row>
-    <row r="172" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:12">
       <c r="B172">
         <v>171</v>
       </c>
@@ -8034,7 +8037,7 @@
         <v>7304</v>
       </c>
     </row>
-    <row r="173" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:12">
       <c r="B173">
         <v>172</v>
       </c>
@@ -8069,7 +8072,7 @@
         <v>5994</v>
       </c>
     </row>
-    <row r="174" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:12">
       <c r="B174">
         <v>173</v>
       </c>
@@ -8104,7 +8107,7 @@
         <v>6642</v>
       </c>
     </row>
-    <row r="175" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:12">
       <c r="B175">
         <v>174</v>
       </c>
@@ -8139,7 +8142,7 @@
         <v>6885</v>
       </c>
     </row>
-    <row r="176" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:12">
       <c r="B176">
         <v>175</v>
       </c>
@@ -8174,7 +8177,7 @@
         <v>6308</v>
       </c>
     </row>
-    <row r="177" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:12">
       <c r="B177">
         <v>176</v>
       </c>
@@ -8209,7 +8212,7 @@
         <v>7268</v>
       </c>
     </row>
-    <row r="178" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:12">
       <c r="B178">
         <v>177</v>
       </c>
@@ -8244,7 +8247,7 @@
         <v>6004</v>
       </c>
     </row>
-    <row r="179" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:12">
       <c r="B179">
         <v>178</v>
       </c>
@@ -8279,7 +8282,7 @@
         <v>6375</v>
       </c>
     </row>
-    <row r="180" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:12">
       <c r="B180">
         <v>179</v>
       </c>
@@ -8314,7 +8317,7 @@
         <v>6308</v>
       </c>
     </row>
-    <row r="181" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:12">
       <c r="B181">
         <v>180</v>
       </c>
@@ -8349,7 +8352,7 @@
         <v>6004</v>
       </c>
     </row>
-    <row r="182" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:12">
       <c r="B182">
         <v>181</v>
       </c>
@@ -8384,7 +8387,7 @@
         <v>6264</v>
       </c>
     </row>
-    <row r="183" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:12">
       <c r="B183">
         <v>182</v>
       </c>
@@ -8419,7 +8422,7 @@
         <v>6586</v>
       </c>
     </row>
-    <row r="184" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:12">
       <c r="B184">
         <v>183</v>
       </c>
@@ -8454,7 +8457,7 @@
         <v>6699</v>
       </c>
     </row>
-    <row r="185" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:12">
       <c r="B185">
         <v>184</v>
       </c>
@@ -8489,7 +8492,7 @@
         <v>5621</v>
       </c>
     </row>
-    <row r="186" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:12">
       <c r="B186">
         <v>185</v>
       </c>
@@ -8524,7 +8527,7 @@
         <v>6399</v>
       </c>
     </row>
-    <row r="187" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:12">
       <c r="B187">
         <v>186</v>
       </c>
@@ -8559,7 +8562,7 @@
         <v>6278</v>
       </c>
     </row>
-    <row r="188" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:12">
       <c r="B188">
         <v>187</v>
       </c>
@@ -8594,7 +8597,7 @@
         <v>6960</v>
       </c>
     </row>
-    <row r="189" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:12">
       <c r="B189">
         <v>188</v>
       </c>
@@ -8629,7 +8632,7 @@
         <v>5775</v>
       </c>
     </row>
-    <row r="190" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:12">
       <c r="B190">
         <v>189</v>
       </c>
@@ -8664,7 +8667,7 @@
         <v>5680</v>
       </c>
     </row>
-    <row r="191" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:12">
       <c r="B191">
         <v>190</v>
       </c>
@@ -8699,7 +8702,7 @@
         <v>7656</v>
       </c>
     </row>
-    <row r="192" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:12">
       <c r="B192">
         <v>191</v>
       </c>
@@ -8734,7 +8737,7 @@
         <v>6885</v>
       </c>
     </row>
-    <row r="193" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:12">
       <c r="B193">
         <v>192</v>
       </c>
@@ -8769,7 +8772,7 @@
         <v>7569</v>
       </c>
     </row>
-    <row r="194" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:12">
       <c r="B194">
         <v>193</v>
       </c>
@@ -8804,7 +8807,7 @@
         <v>6384</v>
       </c>
     </row>
-    <row r="195" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:12">
       <c r="B195">
         <v>194</v>
       </c>
@@ -8839,7 +8842,7 @@
         <v>7744</v>
       </c>
     </row>
-    <row r="196" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:12">
       <c r="B196">
         <v>195</v>
       </c>
@@ -8874,7 +8877,7 @@
         <v>6557</v>
       </c>
     </row>
-    <row r="197" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:12">
       <c r="B197">
         <v>196</v>
       </c>
@@ -8909,7 +8912,7 @@
         <v>7220</v>
       </c>
     </row>
-    <row r="198" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:12">
       <c r="B198">
         <v>197</v>
       </c>
@@ -8944,7 +8947,7 @@
         <v>6004</v>
       </c>
     </row>
-    <row r="199" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:12">
       <c r="B199">
         <v>198</v>
       </c>
@@ -8979,7 +8982,7 @@
         <v>6450</v>
       </c>
     </row>
-    <row r="200" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:12">
       <c r="B200">
         <v>199</v>
       </c>
@@ -9014,7 +9017,7 @@
         <v>5865</v>
       </c>
     </row>
-    <row r="201" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:12">
       <c r="B201">
         <v>200</v>
       </c>
@@ -9049,7 +9052,7 @@
         <v>5720</v>
       </c>
     </row>
-    <row r="202" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:12">
       <c r="B202">
         <v>201</v>
       </c>
@@ -9094,11 +9097,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C4F9D46-9296-4305-8377-11332ACF15EC}">
   <dimension ref="A1:J202"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
     <col min="3" max="3" width="19.7109375" customWidth="1"/>
     <col min="4" max="4" width="16.140625" customWidth="1"/>
@@ -9108,27 +9111,27 @@
     <col min="9" max="9" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="B1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
         <f>Data!B2</f>
         <v>1</v>
@@ -9158,7 +9161,7 @@
         <v>293.83980844160646</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3">
         <f>Data!B3</f>
         <v>2</v>
@@ -9188,7 +9191,7 @@
         <v>692.41897745530491</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4">
         <f>Data!B4</f>
         <v>3</v>
@@ -9218,7 +9221,7 @@
         <v>711.73868535088036</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5">
         <f>Data!B5</f>
         <v>4</v>
@@ -9248,7 +9251,7 @@
         <v>874.42178165059465</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6">
         <f>Data!B6</f>
         <v>5</v>
@@ -9278,7 +9281,7 @@
         <v>868.60061938729905</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7">
         <f>Data!B7</f>
         <v>6</v>
@@ -9308,7 +9311,7 @@
         <v>1047.2128692868514</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8">
         <f>Data!B8</f>
         <v>7</v>
@@ -9338,7 +9341,7 @@
         <v>1090.5227345177177</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9">
         <f>Data!B9</f>
         <v>8</v>
@@ -9368,7 +9371,7 @@
         <v>1135.8733888950835</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10">
         <f>Data!B10</f>
         <v>9</v>
@@ -9398,7 +9401,7 @@
         <v>1218.3667797506628</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11">
         <f>Data!B11</f>
         <v>10</v>
@@ -9428,7 +9431,7 @@
         <v>1111.4441326490505</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12">
         <f>Data!B12</f>
         <v>11</v>
@@ -9458,7 +9461,7 @@
         <v>1139.6230651513683</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13">
         <f>Data!B13</f>
         <v>12</v>
@@ -9488,7 +9491,7 @@
         <v>1048.4451344729489</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14">
         <f>Data!B14</f>
         <v>13</v>
@@ -9518,7 +9521,7 @@
         <v>1112.8212427878977</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15">
         <f>Data!B15</f>
         <v>14</v>
@@ -9548,7 +9551,7 @@
         <v>1254.5933295295333</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16">
         <f>Data!B16</f>
         <v>15</v>
@@ -9578,7 +9581,7 @@
         <v>1042.3646583130105</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10">
       <c r="A17">
         <f>Data!B17</f>
         <v>16</v>
@@ -9608,7 +9611,7 @@
         <v>1215.4796340951159</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10">
       <c r="A18">
         <f>Data!B18</f>
         <v>17</v>
@@ -9638,7 +9641,7 @@
         <v>1137.4324543022333</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10">
       <c r="A19">
         <f>Data!B19</f>
         <v>18</v>
@@ -9668,7 +9671,7 @@
         <v>856.66899844689249</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10">
       <c r="A20">
         <f>Data!B20</f>
         <v>19</v>
@@ -9698,7 +9701,7 @@
         <v>1089.0592911315691</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10">
       <c r="A21">
         <f>Data!B21</f>
         <v>20</v>
@@ -9728,7 +9731,7 @@
         <v>988.86241489905933</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10">
       <c r="A22">
         <f>Data!B22</f>
         <v>21</v>
@@ -9758,7 +9761,7 @@
         <v>845.75212538899495</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10">
       <c r="A23">
         <f>Data!B23</f>
         <v>22</v>
@@ -9788,7 +9791,7 @@
         <v>921.80521261272975</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10">
       <c r="A24">
         <f>Data!B24</f>
         <v>23</v>
@@ -9818,7 +9821,7 @@
         <v>1319.7076229225927</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10">
       <c r="A25">
         <f>Data!B25</f>
         <v>24</v>
@@ -9848,7 +9851,7 @@
         <v>565.86094581619602</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10">
       <c r="A26">
         <f>Data!B26</f>
         <v>25</v>
@@ -9877,8 +9880,15 @@
         <f>_xlfn.STDEV.P(Data!C26:L26)</f>
         <v>920.26982999552911</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I26" t="s">
+        <v>15</v>
+      </c>
+      <c r="J26">
+        <f>B201</f>
+        <v>6207.6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27">
         <f>Data!B27</f>
         <v>26</v>
@@ -9908,14 +9918,14 @@
         <v>977.72217096678412</v>
       </c>
       <c r="I27" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="J27">
         <f>E201</f>
         <v>7626</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10">
       <c r="A28">
         <f>Data!B28</f>
         <v>27</v>
@@ -9945,14 +9955,14 @@
         <v>711.99876404387112</v>
       </c>
       <c r="I28" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="J28">
         <f>C201</f>
         <v>5720</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10">
       <c r="A29">
         <f>Data!B29</f>
         <v>28</v>
@@ -9982,14 +9992,14 @@
         <v>928.66439578568963</v>
       </c>
       <c r="I29" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="J29" s="1">
         <f>G201</f>
         <v>535.23232338863841</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10">
       <c r="A30">
         <f>Data!B30</f>
         <v>29</v>
@@ -10019,7 +10029,7 @@
         <v>855.88265369733983</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10">
       <c r="A31">
         <f>Data!B31</f>
         <v>30</v>
@@ -10049,7 +10059,7 @@
         <v>800.72756915195566</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10">
       <c r="A32">
         <f>Data!B32</f>
         <v>31</v>
@@ -10079,7 +10089,7 @@
         <v>330.70864820866115</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33">
         <f>Data!B33</f>
         <v>32</v>
@@ -10109,7 +10119,7 @@
         <v>616.55692356829468</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34">
         <f>Data!B34</f>
         <v>33</v>
@@ -10139,7 +10149,7 @@
         <v>827.52790889492053</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="A35">
         <f>Data!B35</f>
         <v>34</v>
@@ -10169,7 +10179,7 @@
         <v>687.78351245141084</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="A36">
         <f>Data!B36</f>
         <v>35</v>
@@ -10199,7 +10209,7 @@
         <v>610.22953878028557</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="A37">
         <f>Data!B37</f>
         <v>36</v>
@@ -10229,7 +10239,7 @@
         <v>751.39566141946807</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38">
         <f>Data!B38</f>
         <v>37</v>
@@ -10259,7 +10269,7 @@
         <v>977.29259180656845</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="A39">
         <f>Data!B39</f>
         <v>38</v>
@@ -10289,7 +10299,7 @@
         <v>722.66047352819839</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="A40">
         <f>Data!B40</f>
         <v>39</v>
@@ -10319,7 +10329,7 @@
         <v>711.18222699952219</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="A41">
         <f>Data!B41</f>
         <v>40</v>
@@ -10349,7 +10359,7 @@
         <v>747.46448745074167</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="A42">
         <f>Data!B42</f>
         <v>41</v>
@@ -10379,7 +10389,7 @@
         <v>882.52567101473039</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7">
       <c r="A43">
         <f>Data!B43</f>
         <v>42</v>
@@ -10409,7 +10419,7 @@
         <v>681.53033681561089</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7">
       <c r="A44">
         <f>Data!B44</f>
         <v>43</v>
@@ -10439,7 +10449,7 @@
         <v>669.2365501076581</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7">
       <c r="A45">
         <f>Data!B45</f>
         <v>44</v>
@@ -10469,7 +10479,7 @@
         <v>395.07057597345818</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="A46">
         <f>Data!B46</f>
         <v>45</v>
@@ -10499,7 +10509,7 @@
         <v>661.49482991176887</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7">
       <c r="A47">
         <f>Data!B47</f>
         <v>46</v>
@@ -10529,7 +10539,7 @@
         <v>669.99779104113463</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7">
       <c r="A48">
         <f>Data!B48</f>
         <v>47</v>
@@ -10559,7 +10569,7 @@
         <v>611.81455066057049</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7">
       <c r="A49">
         <f>Data!B49</f>
         <v>48</v>
@@ -10589,7 +10599,7 @@
         <v>955.80607342703149</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7">
       <c r="A50">
         <f>Data!B50</f>
         <v>49</v>
@@ -10619,7 +10629,7 @@
         <v>816.23295694305307</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7">
       <c r="A51">
         <f>Data!B51</f>
         <v>50</v>
@@ -10649,7 +10659,7 @@
         <v>829.07560572000909</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7">
       <c r="A52">
         <f>Data!B52</f>
         <v>51</v>
@@ -10679,7 +10689,7 @@
         <v>708.32089479274862</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7">
       <c r="A53">
         <f>Data!B53</f>
         <v>52</v>
@@ -10709,7 +10719,7 @@
         <v>986.20269721797047</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7">
       <c r="A54">
         <f>Data!B54</f>
         <v>53</v>
@@ -10739,7 +10749,7 @@
         <v>774.3761359959384</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7">
       <c r="A55">
         <f>Data!B55</f>
         <v>54</v>
@@ -10769,7 +10779,7 @@
         <v>851.53936491509307</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7">
       <c r="A56">
         <f>Data!B56</f>
         <v>55</v>
@@ -10799,7 +10809,7 @@
         <v>761.6022649651195</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7">
       <c r="A57">
         <f>Data!B57</f>
         <v>56</v>
@@ -10829,7 +10839,7 @@
         <v>733.82371180004805</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7">
       <c r="A58">
         <f>Data!B58</f>
         <v>57</v>
@@ -10859,7 +10869,7 @@
         <v>1028.1367856467348</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7">
       <c r="A59">
         <f>Data!B59</f>
         <v>58</v>
@@ -10889,7 +10899,7 @@
         <v>722.71051604359536</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7">
       <c r="A60">
         <f>Data!B60</f>
         <v>59</v>
@@ -10919,7 +10929,7 @@
         <v>867.52392474213639</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7">
       <c r="A61">
         <f>Data!B61</f>
         <v>60</v>
@@ -10949,7 +10959,7 @@
         <v>922.17169767890834</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7">
       <c r="A62">
         <f>Data!B62</f>
         <v>61</v>
@@ -10979,7 +10989,7 @@
         <v>796.91982658232314</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7">
       <c r="A63">
         <f>Data!B63</f>
         <v>62</v>
@@ -11009,7 +11019,7 @@
         <v>496.19238244858212</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7">
       <c r="A64">
         <f>Data!B64</f>
         <v>63</v>
@@ -11039,7 +11049,7 @@
         <v>829.45770838542455</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7">
       <c r="A65">
         <f>Data!B65</f>
         <v>64</v>
@@ -11069,7 +11079,7 @@
         <v>436.82014605555918</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7">
       <c r="A66">
         <f>Data!B66</f>
         <v>65</v>
@@ -11099,7 +11109,7 @@
         <v>618.7678159051261</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7">
       <c r="A67">
         <f>Data!B67</f>
         <v>66</v>
@@ -11129,7 +11139,7 @@
         <v>582.57432143890446</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7">
       <c r="A68">
         <f>Data!B68</f>
         <v>67</v>
@@ -11159,7 +11169,7 @@
         <v>754.09996684789746</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7">
       <c r="A69">
         <f>Data!B69</f>
         <v>68</v>
@@ -11189,7 +11199,7 @@
         <v>673.64545571094004</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7">
       <c r="A70">
         <f>Data!B70</f>
         <v>69</v>
@@ -11219,7 +11229,7 @@
         <v>701.30418507235504</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7">
       <c r="A71">
         <f>Data!B71</f>
         <v>70</v>
@@ -11249,7 +11259,7 @@
         <v>556.2622493033299</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7">
       <c r="A72">
         <f>Data!B72</f>
         <v>71</v>
@@ -11279,7 +11289,7 @@
         <v>657.48311004922402</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7">
       <c r="A73">
         <f>Data!B73</f>
         <v>72</v>
@@ -11309,7 +11319,7 @@
         <v>576.00559025065024</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7">
       <c r="A74">
         <f>Data!B74</f>
         <v>73</v>
@@ -11339,7 +11349,7 @@
         <v>496.76051574174056</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7">
       <c r="A75">
         <f>Data!B75</f>
         <v>74</v>
@@ -11369,7 +11379,7 @@
         <v>742.36525268900232</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7">
       <c r="A76">
         <f>Data!B76</f>
         <v>75</v>
@@ -11399,7 +11409,7 @@
         <v>779.30038496076725</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7">
       <c r="A77">
         <f>Data!B77</f>
         <v>76</v>
@@ -11429,7 +11439,7 @@
         <v>704.88104670220775</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7">
       <c r="A78">
         <f>Data!B78</f>
         <v>77</v>
@@ -11459,7 +11469,7 @@
         <v>432.11490370039309</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7">
       <c r="A79">
         <f>Data!B79</f>
         <v>78</v>
@@ -11489,7 +11499,7 @@
         <v>431.9458762391418</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7">
       <c r="A80">
         <f>Data!B80</f>
         <v>79</v>
@@ -11519,7 +11529,7 @@
         <v>763.65282687881142</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7">
       <c r="A81">
         <f>Data!B81</f>
         <v>80</v>
@@ -11549,7 +11559,7 @@
         <v>340.81116472322321</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7">
       <c r="A82">
         <f>Data!B82</f>
         <v>81</v>
@@ -11579,7 +11589,7 @@
         <v>704.45130420775001</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7">
       <c r="A83">
         <f>Data!B83</f>
         <v>82</v>
@@ -11609,7 +11619,7 @@
         <v>619.96281340093299</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7">
       <c r="A84">
         <f>Data!B84</f>
         <v>83</v>
@@ -11639,7 +11649,7 @@
         <v>575.53773985725741</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7">
       <c r="A85">
         <f>Data!B85</f>
         <v>84</v>
@@ -11669,7 +11679,7 @@
         <v>483.53540718338297</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7">
       <c r="A86">
         <f>Data!B86</f>
         <v>85</v>
@@ -11699,7 +11709,7 @@
         <v>672.39468320325079</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7">
       <c r="A87">
         <f>Data!B87</f>
         <v>86</v>
@@ -11729,7 +11739,7 @@
         <v>266.98996235813809</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7">
       <c r="A88">
         <f>Data!B88</f>
         <v>87</v>
@@ -11759,7 +11769,7 @@
         <v>546.79959765895956</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7">
       <c r="A89">
         <f>Data!B89</f>
         <v>88</v>
@@ -11789,7 +11799,7 @@
         <v>522.89180525229119</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7">
       <c r="A90">
         <f>Data!B90</f>
         <v>89</v>
@@ -11819,7 +11829,7 @@
         <v>486.3913650549319</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7">
       <c r="A91">
         <f>Data!B91</f>
         <v>90</v>
@@ -11849,7 +11859,7 @@
         <v>661.16545584293806</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7">
       <c r="A92">
         <f>Data!B92</f>
         <v>91</v>
@@ -11879,7 +11889,7 @@
         <v>684.99039409323109</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7">
       <c r="A93">
         <f>Data!B93</f>
         <v>92</v>
@@ -11909,7 +11919,7 @@
         <v>519.97649946896638</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7">
       <c r="A94">
         <f>Data!B94</f>
         <v>93</v>
@@ -11939,7 +11949,7 @@
         <v>709.37776254968696</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7">
       <c r="A95">
         <f>Data!B95</f>
         <v>94</v>
@@ -11969,7 +11979,7 @@
         <v>599.22870425239148</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7">
       <c r="A96">
         <f>Data!B96</f>
         <v>95</v>
@@ -11999,7 +12009,7 @@
         <v>502.53796871480273</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7">
       <c r="A97">
         <f>Data!B97</f>
         <v>96</v>
@@ -12029,7 +12039,7 @@
         <v>457.6729072164967</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7">
       <c r="A98">
         <f>Data!B98</f>
         <v>97</v>
@@ -12059,7 +12069,7 @@
         <v>675.67376743514319</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7">
       <c r="A99">
         <f>Data!B99</f>
         <v>98</v>
@@ -12089,7 +12099,7 @@
         <v>383.10238840289156</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7">
       <c r="A100">
         <f>Data!B100</f>
         <v>99</v>
@@ -12119,7 +12129,7 @@
         <v>417.54507541102674</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7">
       <c r="A101">
         <f>Data!B101</f>
         <v>100</v>
@@ -12149,7 +12159,7 @@
         <v>315.08855897985251</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7">
       <c r="A102">
         <f>Data!B102</f>
         <v>101</v>
@@ -12179,7 +12189,7 @@
         <v>616.76048025145064</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7">
       <c r="A103">
         <f>Data!B103</f>
         <v>102</v>
@@ -12209,7 +12219,7 @@
         <v>548.5053235840104</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7">
       <c r="A104">
         <f>Data!B104</f>
         <v>103</v>
@@ -12239,7 +12249,7 @@
         <v>532.15245935727853</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7">
       <c r="A105">
         <f>Data!B105</f>
         <v>104</v>
@@ -12269,7 +12279,7 @@
         <v>579.00573399578695</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7">
       <c r="A106">
         <f>Data!B106</f>
         <v>105</v>
@@ -12299,7 +12309,7 @@
         <v>678.87742634440281</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7">
       <c r="A107">
         <f>Data!B107</f>
         <v>106</v>
@@ -12329,7 +12339,7 @@
         <v>508.13148888845689</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7">
       <c r="A108">
         <f>Data!B108</f>
         <v>107</v>
@@ -12359,7 +12369,7 @@
         <v>487.96955847675576</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7">
       <c r="A109">
         <f>Data!B109</f>
         <v>108</v>
@@ -12389,7 +12399,7 @@
         <v>685.31657648126384</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7">
       <c r="A110">
         <f>Data!B110</f>
         <v>109</v>
@@ -12419,7 +12429,7 @@
         <v>554.60544533929703</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7">
       <c r="A111">
         <f>Data!B111</f>
         <v>110</v>
@@ -12449,7 +12459,7 @@
         <v>402.37191750916213</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7">
       <c r="A112">
         <f>Data!B112</f>
         <v>111</v>
@@ -12479,7 +12489,7 @@
         <v>642.88786736101963</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7">
       <c r="A113">
         <f>Data!B113</f>
         <v>112</v>
@@ -12509,7 +12519,7 @@
         <v>401.42133725052537</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7">
       <c r="A114">
         <f>Data!B114</f>
         <v>113</v>
@@ -12539,7 +12549,7 @@
         <v>567.8096864267111</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7">
       <c r="A115">
         <f>Data!B115</f>
         <v>114</v>
@@ -12569,7 +12579,7 @@
         <v>663.93147989834017</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7">
       <c r="A116">
         <f>Data!B116</f>
         <v>115</v>
@@ -12599,7 +12609,7 @@
         <v>507.87553593375611</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7">
       <c r="A117">
         <f>Data!B117</f>
         <v>116</v>
@@ -12629,7 +12639,7 @@
         <v>441.09093166828995</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7">
       <c r="A118">
         <f>Data!B118</f>
         <v>117</v>
@@ -12659,7 +12669,7 @@
         <v>434.01093304201453</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7">
       <c r="A119">
         <f>Data!B119</f>
         <v>118</v>
@@ -12689,7 +12699,7 @@
         <v>640.65451688097858</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7">
       <c r="A120">
         <f>Data!B120</f>
         <v>119</v>
@@ -12719,7 +12729,7 @@
         <v>565.80452454889405</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7">
       <c r="A121">
         <f>Data!B121</f>
         <v>120</v>
@@ -12749,7 +12759,7 @@
         <v>639.557159290708</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7">
       <c r="A122">
         <f>Data!B122</f>
         <v>121</v>
@@ -12779,7 +12789,7 @@
         <v>507.17335300664212</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7">
       <c r="A123">
         <f>Data!B123</f>
         <v>122</v>
@@ -12809,7 +12819,7 @@
         <v>561.09589198282322</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7">
       <c r="A124">
         <f>Data!B124</f>
         <v>123</v>
@@ -12839,7 +12849,7 @@
         <v>529.07281162426023</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7">
       <c r="A125">
         <f>Data!B125</f>
         <v>124</v>
@@ -12869,7 +12879,7 @@
         <v>612.74451445932993</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7">
       <c r="A126">
         <f>Data!B126</f>
         <v>125</v>
@@ -12899,7 +12909,7 @@
         <v>937.97998379496346</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7">
       <c r="A127">
         <f>Data!B127</f>
         <v>126</v>
@@ -12929,7 +12939,7 @@
         <v>711.75600454088192</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7">
       <c r="A128">
         <f>Data!B128</f>
         <v>127</v>
@@ -12959,7 +12969,7 @@
         <v>665.69783685993752</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7">
       <c r="A129">
         <f>Data!B129</f>
         <v>128</v>
@@ -12989,7 +12999,7 @@
         <v>897.17365097287609</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7">
       <c r="A130">
         <f>Data!B130</f>
         <v>129</v>
@@ -13019,7 +13029,7 @@
         <v>580.79535982994901</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7">
       <c r="A131">
         <f>Data!B131</f>
         <v>130</v>
@@ -13049,7 +13059,7 @@
         <v>210.13862091486183</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7">
       <c r="A132">
         <f>Data!B132</f>
         <v>131</v>
@@ -13079,7 +13089,7 @@
         <v>648.88735540153652</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7">
       <c r="A133">
         <f>Data!B133</f>
         <v>132</v>
@@ -13109,7 +13119,7 @@
         <v>547.6517597890105</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7">
       <c r="A134">
         <f>Data!B134</f>
         <v>133</v>
@@ -13139,7 +13149,7 @@
         <v>936.361943908444</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7">
       <c r="A135">
         <f>Data!B135</f>
         <v>134</v>
@@ -13169,7 +13179,7 @@
         <v>660.26525730194226</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7">
       <c r="A136">
         <f>Data!B136</f>
         <v>135</v>
@@ -13199,7 +13209,7 @@
         <v>524.23788493392954</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7">
       <c r="A137">
         <f>Data!B137</f>
         <v>136</v>
@@ -13229,7 +13239,7 @@
         <v>761.50798419977184</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7">
       <c r="A138">
         <f>Data!B138</f>
         <v>137</v>
@@ -13259,7 +13269,7 @@
         <v>376.73440246412326</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7">
       <c r="A139">
         <f>Data!B139</f>
         <v>138</v>
@@ -13289,7 +13299,7 @@
         <v>612.37893497408936</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7">
       <c r="A140">
         <f>Data!B140</f>
         <v>139</v>
@@ -13319,7 +13329,7 @@
         <v>712.90967169761416</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7">
       <c r="A141">
         <f>Data!B141</f>
         <v>140</v>
@@ -13349,7 +13359,7 @@
         <v>721.90486907902209</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7">
       <c r="A142">
         <f>Data!B142</f>
         <v>141</v>
@@ -13379,7 +13389,7 @@
         <v>640.85549073094478</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7">
       <c r="A143">
         <f>Data!B143</f>
         <v>142</v>
@@ -13409,7 +13419,7 @@
         <v>379.14936370776098</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7">
       <c r="A144">
         <f>Data!B144</f>
         <v>143</v>
@@ -13439,7 +13449,7 @@
         <v>682.20510845346212</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7">
       <c r="A145">
         <f>Data!B145</f>
         <v>144</v>
@@ -13469,7 +13479,7 @@
         <v>627.74306846033755</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7">
       <c r="A146">
         <f>Data!B146</f>
         <v>145</v>
@@ -13499,7 +13509,7 @@
         <v>664.86405377340122</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7">
       <c r="A147">
         <f>Data!B147</f>
         <v>146</v>
@@ -13529,7 +13539,7 @@
         <v>536.4479098663727</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7">
       <c r="A148">
         <f>Data!B148</f>
         <v>147</v>
@@ -13559,7 +13569,7 @@
         <v>375.32124906538394</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7">
       <c r="A149">
         <f>Data!B149</f>
         <v>148</v>
@@ -13589,7 +13599,7 @@
         <v>997.38147666777934</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7">
       <c r="A150">
         <f>Data!B150</f>
         <v>149</v>
@@ -13619,7 +13629,7 @@
         <v>628.0175873333485</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7">
       <c r="A151">
         <f>Data!B151</f>
         <v>150</v>
@@ -13649,7 +13659,7 @@
         <v>376.24094673493477</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7">
       <c r="A152">
         <f>Data!B152</f>
         <v>151</v>
@@ -13679,7 +13689,7 @@
         <v>667.49607489482662</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7">
       <c r="A153">
         <f>Data!B153</f>
         <v>152</v>
@@ -13709,7 +13719,7 @@
         <v>777.00257399831048</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7">
       <c r="A154">
         <f>Data!B154</f>
         <v>153</v>
@@ -13739,7 +13749,7 @@
         <v>483.50417785164996</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7">
       <c r="A155">
         <f>Data!B155</f>
         <v>154</v>
@@ -13769,7 +13779,7 @@
         <v>710.58517434576413</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7">
       <c r="A156">
         <f>Data!B156</f>
         <v>155</v>
@@ -13799,7 +13809,7 @@
         <v>575.14812005256522</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7">
       <c r="A157">
         <f>Data!B157</f>
         <v>156</v>
@@ -13829,7 +13839,7 @@
         <v>617.48120619173505</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7">
       <c r="A158">
         <f>Data!B158</f>
         <v>157</v>
@@ -13859,7 +13869,7 @@
         <v>418.4117708669296</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7">
       <c r="A159">
         <f>Data!B159</f>
         <v>158</v>
@@ -13889,7 +13899,7 @@
         <v>477.76253515737289</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7">
       <c r="A160">
         <f>Data!B160</f>
         <v>159</v>
@@ -13919,7 +13929,7 @@
         <v>531.04440492297817</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7">
       <c r="A161">
         <f>Data!B161</f>
         <v>160</v>
@@ -13949,7 +13959,7 @@
         <v>569.62286646517271</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7">
       <c r="A162">
         <f>Data!B162</f>
         <v>161</v>
@@ -13979,7 +13989,7 @@
         <v>798.89100633315434</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7">
       <c r="A163">
         <f>Data!B163</f>
         <v>162</v>
@@ -14009,7 +14019,7 @@
         <v>504.58011256885658</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7">
       <c r="A164">
         <f>Data!B164</f>
         <v>163</v>
@@ -14039,7 +14049,7 @@
         <v>579.51446056159807</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7">
       <c r="A165">
         <f>Data!B165</f>
         <v>164</v>
@@ -14069,7 +14079,7 @@
         <v>413.34097304767647</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7">
       <c r="A166">
         <f>Data!B166</f>
         <v>165</v>
@@ -14099,7 +14109,7 @@
         <v>399.82207292744607</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7">
       <c r="A167">
         <f>Data!B167</f>
         <v>166</v>
@@ -14129,7 +14139,7 @@
         <v>576.137561698593</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7">
       <c r="A168">
         <f>Data!B168</f>
         <v>167</v>
@@ -14159,7 +14169,7 @@
         <v>557.71534854260551</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7">
       <c r="A169">
         <f>Data!B169</f>
         <v>168</v>
@@ -14189,7 +14199,7 @@
         <v>604.56431419659566</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7">
       <c r="A170">
         <f>Data!B170</f>
         <v>169</v>
@@ -14219,7 +14229,7 @@
         <v>457.48845887082223</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7">
       <c r="A171">
         <f>Data!B171</f>
         <v>170</v>
@@ -14249,7 +14259,7 @@
         <v>520.92383320404917</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7">
       <c r="A172">
         <f>Data!B172</f>
         <v>171</v>
@@ -14279,7 +14289,7 @@
         <v>613.00036704719844</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7">
       <c r="A173">
         <f>Data!B173</f>
         <v>172</v>
@@ -14309,7 +14319,7 @@
         <v>515.3228211519455</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7">
       <c r="A174">
         <f>Data!B174</f>
         <v>173</v>
@@ -14339,7 +14349,7 @@
         <v>413.57781613621398</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7">
       <c r="A175">
         <f>Data!B175</f>
         <v>174</v>
@@ -14369,7 +14379,7 @@
         <v>483.17534084429434</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7">
       <c r="A176">
         <f>Data!B176</f>
         <v>175</v>
@@ -14399,7 +14409,7 @@
         <v>627.07061803276986</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7">
       <c r="A177">
         <f>Data!B177</f>
         <v>176</v>
@@ -14429,7 +14439,7 @@
         <v>495.09939406143491</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7">
       <c r="A178">
         <f>Data!B178</f>
         <v>177</v>
@@ -14459,7 +14469,7 @@
         <v>1334.7783673704037</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7">
       <c r="A179">
         <f>Data!B179</f>
         <v>178</v>
@@ -14489,7 +14499,7 @@
         <v>494.27263731669387</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7">
       <c r="A180">
         <f>Data!B180</f>
         <v>179</v>
@@ -14519,7 +14529,7 @@
         <v>468.87610303789205</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7">
       <c r="A181">
         <f>Data!B181</f>
         <v>180</v>
@@ -14549,7 +14559,7 @@
         <v>767.23386916897778</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7">
       <c r="A182">
         <f>Data!B182</f>
         <v>181</v>
@@ -14579,7 +14589,7 @@
         <v>819.13161335648624</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7">
       <c r="A183">
         <f>Data!B183</f>
         <v>182</v>
@@ -14609,7 +14619,7 @@
         <v>657.25912698113211</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7">
       <c r="A184">
         <f>Data!B184</f>
         <v>183</v>
@@ -14639,7 +14649,7 @@
         <v>507.30130100365398</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7">
       <c r="A185">
         <f>Data!B185</f>
         <v>184</v>
@@ -14669,7 +14679,7 @@
         <v>608.29387634596492</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7">
       <c r="A186">
         <f>Data!B186</f>
         <v>185</v>
@@ -14699,7 +14709,7 @@
         <v>504.46688692123297</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7">
       <c r="A187">
         <f>Data!B187</f>
         <v>186</v>
@@ -14729,7 +14739,7 @@
         <v>550.92911522263921</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7">
       <c r="A188">
         <f>Data!B188</f>
         <v>187</v>
@@ -14759,7 +14769,7 @@
         <v>574.9647728339537</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7">
       <c r="A189">
         <f>Data!B189</f>
         <v>188</v>
@@ -14789,7 +14799,7 @@
         <v>514.3621292435904</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7">
       <c r="A190">
         <f>Data!B190</f>
         <v>189</v>
@@ -14819,7 +14829,7 @@
         <v>357.01805276484271</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7">
       <c r="A191">
         <f>Data!B191</f>
         <v>190</v>
@@ -14849,7 +14859,7 @@
         <v>664.60878718235438</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7">
       <c r="A192">
         <f>Data!B192</f>
         <v>191</v>
@@ -14879,7 +14889,7 @@
         <v>562.66917455997179</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7">
       <c r="A193">
         <f>Data!B193</f>
         <v>192</v>
@@ -14909,7 +14919,7 @@
         <v>659.44598717408235</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7">
       <c r="A194">
         <f>Data!B194</f>
         <v>193</v>
@@ -14939,7 +14949,7 @@
         <v>634.86267018938827</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7">
       <c r="A195">
         <f>Data!B195</f>
         <v>194</v>
@@ -14969,7 +14979,7 @@
         <v>816.13729849823676</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7">
       <c r="A196">
         <f>Data!B196</f>
         <v>195</v>
@@ -14999,7 +15009,7 @@
         <v>394.96283369451351</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7">
       <c r="A197">
         <f>Data!B197</f>
         <v>196</v>
@@ -15029,7 +15039,7 @@
         <v>593.46953586515292</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7">
       <c r="A198">
         <f>Data!B198</f>
         <v>197</v>
@@ -15059,7 +15069,7 @@
         <v>339.84497936559251</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7">
       <c r="A199">
         <f>Data!B199</f>
         <v>198</v>
@@ -15089,7 +15099,7 @@
         <v>473.78126809742065</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7">
       <c r="A200">
         <f>Data!B200</f>
         <v>199</v>
@@ -15119,7 +15129,7 @@
         <v>885.99655191202635</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7">
       <c r="A201">
         <f>Data!B201</f>
         <v>200</v>
@@ -15149,7 +15159,7 @@
         <v>535.23232338863841</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7">
       <c r="A202">
         <f>Data!B202</f>
         <v>201</v>
